--- a/test/data/temp_img_input.xlsx
+++ b/test/data/temp_img_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\CODE\VsCode\python\Canteen_Statisic\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21F01C8D-2E35-4499-92B9-570744A94FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CB136F-0B77-4DAE-ABE9-2CAA68495B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13368" yWindow="3444" windowWidth="18264" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" activeCellId="1" sqref="A3:J5 B2:J2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -501,7 +501,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45797</v>
+        <v>45794</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45797</v>
+        <v>45794</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45797</v>
+        <v>45794</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45797</v>
+        <v>45804</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
